--- a/nice_2017.xlsx
+++ b/nice_2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -966,7 +984,7 @@
         <v>0.09626491900000644</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>2648.759730287999</v>
@@ -975,12 +993,21 @@
         <v>34.96722587213815</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.12030047421</v>
+      </c>
+      <c r="AM2">
+        <v>0.07548579970104632</v>
+      </c>
+      <c r="AN2">
+        <v>0.03338315894369706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -1040,7 +1067,7 @@
         <v>0.3829482050000053</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>2593.60777246426</v>
@@ -1049,12 +1076,21 @@
         <v>30.72696259874954</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.82180287635</v>
+      </c>
+      <c r="AM3">
+        <v>0.03800475059382423</v>
+      </c>
+      <c r="AN3">
+        <v>0.03433383718419349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -1114,7 +1150,7 @@
         <v>0.8497972070000088</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>2792.136448734866</v>
@@ -1141,12 +1177,21 @@
         <v>15.15</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.85591113187</v>
+      </c>
+      <c r="AM4">
+        <v>0.02466608413431531</v>
+      </c>
+      <c r="AN4">
+        <v>0.03844713518911497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -1206,7 +1251,7 @@
         <v>0.6301619089999946</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>2659.840154920073</v>
@@ -1233,12 +1278,21 @@
         <v>12.63</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.94761650933</v>
+      </c>
+      <c r="AM5">
+        <v>0.02761415833558498</v>
+      </c>
+      <c r="AN5">
+        <v>0.02820859227235883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -1298,7 +1352,7 @@
         <v>0.3681087939999941</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>2667.297835570528</v>
@@ -1307,12 +1361,21 @@
         <v>28.53213882831365</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.05410621036</v>
+      </c>
+      <c r="AM6">
+        <v>0.05335278486948365</v>
+      </c>
+      <c r="AN6">
+        <v>0.0406919189287761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -1372,7 +1435,7 @@
         <v>0.5161597340000128</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>2621.169224044796</v>
@@ -1381,12 +1444,21 @@
         <v>35.34589328812848</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.15212940882</v>
+      </c>
+      <c r="AM7">
+        <v>0.06938653960690885</v>
+      </c>
+      <c r="AN7">
+        <v>0.04906194163192377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -1446,7 +1518,7 @@
         <v>0.1807445959999967</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>3230.790719055616</v>
@@ -1473,12 +1545,21 @@
         <v>14.63</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.15982177144</v>
+      </c>
+      <c r="AM8">
+        <v>0.03662535248212997</v>
+      </c>
+      <c r="AN8">
+        <v>0.04779001901764049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1538,7 +1619,7 @@
         <v>0.08983607599999743</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>2979.565036829982</v>
@@ -1547,12 +1628,21 @@
         <v>29.99396003337789</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.1998909207</v>
+      </c>
+      <c r="AM9">
+        <v>0.06198995605775268</v>
+      </c>
+      <c r="AN9">
+        <v>0.03672316384180791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1612,7 +1702,7 @@
         <v>0.1139511389999939</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>2865.228554997443</v>
@@ -1621,12 +1711,21 @@
         <v>41.87980044612311</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.01422180639</v>
+      </c>
+      <c r="AM10">
+        <v>0.04519969543849932</v>
+      </c>
+      <c r="AN10">
+        <v>0.04180798781753996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1686,7 +1785,7 @@
         <v>0.4565525249999922</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>2519.677112405338</v>
@@ -1695,12 +1794,21 @@
         <v>32.87860594265696</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>12.95830069581</v>
+      </c>
+      <c r="AM11">
+        <v>0.03583227445997459</v>
+      </c>
+      <c r="AN11">
+        <v>0.02249047013977129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -1760,7 +1868,7 @@
         <v>0.3519437070000038</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>2819.970385769806</v>
@@ -1769,12 +1877,21 @@
         <v>35.63378003289746</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.94332965763</v>
+      </c>
+      <c r="AM12">
+        <v>0.05132278030344524</v>
+      </c>
+      <c r="AN12">
+        <v>0.04179218929725585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1834,7 +1951,7 @@
         <v>0.02875482199999624</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>2673.530295318054</v>
@@ -1861,12 +1978,21 @@
         <v>14.67</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.1026664351</v>
+      </c>
+      <c r="AM13">
+        <v>0.04390561921717107</v>
+      </c>
+      <c r="AN13">
+        <v>0.02808354855695694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1926,7 +2052,7 @@
         <v>0.5839901429999941</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>2880.753948849281</v>
@@ -1953,12 +2079,21 @@
         <v>8.34</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.87172158681</v>
+      </c>
+      <c r="AM14">
+        <v>0.04294358774155767</v>
+      </c>
+      <c r="AN14">
+        <v>0.03835643177825492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -2018,7 +2153,7 @@
         <v>0.1608767499999999</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>2730.930593748149</v>
@@ -2045,12 +2180,21 @@
         <v>11.93</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>12.97836906168</v>
+      </c>
+      <c r="AM15">
+        <v>0.05170243468115809</v>
+      </c>
+      <c r="AN15">
+        <v>0.03601363175831261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2110,7 +2254,7 @@
         <v>1.458772550000006</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>2745.76734597563</v>
@@ -2119,12 +2263,21 @@
         <v>31.20486907096637</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.46693042892</v>
+      </c>
+      <c r="AM16">
+        <v>0.01827242524916944</v>
+      </c>
+      <c r="AN16">
+        <v>0.02380952380952381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -2184,7 +2337,7 @@
         <v>1.317793397000003</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>2615.180102520823</v>
@@ -2211,12 +2364,21 @@
         <v>14.38</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.41642659045</v>
+      </c>
+      <c r="AM17">
+        <v>0.03501037344398338</v>
+      </c>
+      <c r="AN17">
+        <v>0.02330320094842915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -2276,7 +2438,7 @@
         <v>0.1156981279999911</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>2371.588593220983</v>
@@ -2285,12 +2447,21 @@
         <v>28.98433799192606</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>13.04119343032</v>
+      </c>
+      <c r="AM18">
+        <v>0.04227560684940099</v>
+      </c>
+      <c r="AN18">
+        <v>0.04654080160572038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -2350,7 +2521,7 @@
         <v>0.4042314249999919</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>2691.228579619838</v>
@@ -2359,12 +2530,21 @@
         <v>33.36398308008845</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.80820830147</v>
+      </c>
+      <c r="AM19">
+        <v>0.03083040020857775</v>
+      </c>
+      <c r="AN19">
+        <v>0.02485551644722548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -2424,7 +2604,7 @@
         <v>0.4344627709999997</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>2616.183252338543</v>
@@ -2433,12 +2613,21 @@
         <v>35.57656291309065</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>13.10426280795</v>
+      </c>
+      <c r="AM20">
+        <v>0.04416458708142303</v>
+      </c>
+      <c r="AN20">
+        <v>0.02895943357901458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -2498,7 +2687,7 @@
         <v>0.08658813700000678</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>2154.212907109466</v>
@@ -2525,12 +2714,21 @@
         <v>17.06</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.17033937025</v>
+      </c>
+      <c r="AM21">
+        <v>0.08652575957727873</v>
+      </c>
+      <c r="AN21">
+        <v>0.02410832232496698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -2590,7 +2788,7 @@
         <v>0.1941766480000098</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>2707.763389876453</v>
@@ -2617,12 +2815,21 @@
         <v>12.6</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.0272002234</v>
+      </c>
+      <c r="AM22">
+        <v>0.04949540764258986</v>
+      </c>
+      <c r="AN22">
+        <v>0.0576595985939449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -2682,7 +2889,7 @@
         <v>0.3511386280000011</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>2378.790088457304</v>
@@ -2691,12 +2898,21 @@
         <v>27.67847132835205</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.27023446712</v>
+      </c>
+      <c r="AM23">
+        <v>0.04498777506112469</v>
+      </c>
+      <c r="AN23">
+        <v>0.0528117359413203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -2756,7 +2972,7 @@
         <v>0.4782378929999993</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>2957.557208012875</v>
@@ -2783,12 +2999,21 @@
         <v>11.84</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.96751709393</v>
+      </c>
+      <c r="AM24">
+        <v>0.04365536172850439</v>
+      </c>
+      <c r="AN24">
+        <v>0.05436996369432394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -2848,7 +3073,7 @@
         <v>0.3237729770000044</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>2452.232975477619</v>
@@ -2857,12 +3082,21 @@
         <v>34.78740960128503</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.99076190181</v>
+      </c>
+      <c r="AM25">
+        <v>0.01852500963931438</v>
+      </c>
+      <c r="AN25">
+        <v>0.04341196677065442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -2922,7 +3156,7 @@
         <v>0.4575450480000001</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>2543.698666728618</v>
@@ -2931,12 +3165,21 @@
         <v>31.74666222057584</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.85475111396</v>
+      </c>
+      <c r="AM26">
+        <v>0.04062810386416309</v>
+      </c>
+      <c r="AN26">
+        <v>0.04824291727758597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -2996,7 +3239,7 @@
         <v>0.5842598110000097</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>2600.103758473208</v>
@@ -3005,12 +3248,21 @@
         <v>33.44453510912281</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.01781791963</v>
+      </c>
+      <c r="AM27">
+        <v>0.05524284802413974</v>
+      </c>
+      <c r="AN27">
+        <v>0.03441072361167528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -3070,7 +3322,7 @@
         <v>0.7817368759999965</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>2451.44815732074</v>
@@ -3079,12 +3331,21 @@
         <v>33.17227586654115</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>12.98574839676</v>
+      </c>
+      <c r="AM28">
+        <v>0.05218569976279229</v>
+      </c>
+      <c r="AN28">
+        <v>0.06065740426973909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -3144,7 +3405,7 @@
         <v>0.09864945300000727</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>2577.521995804475</v>
@@ -3171,12 +3432,21 @@
         <v>14.89</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.96768535547</v>
+      </c>
+      <c r="AM29">
+        <v>0.06188111495374068</v>
+      </c>
+      <c r="AN29">
+        <v>0.03730306523602615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -3236,7 +3506,7 @@
         <v>0.6798635619999942</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>2598.029247567116</v>
@@ -3245,12 +3515,21 @@
         <v>28.6971986526099</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.78637578378</v>
+      </c>
+      <c r="AM30">
+        <v>0.03247528628755995</v>
+      </c>
+      <c r="AN30">
+        <v>0.05434080454145052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -3310,7 +3589,7 @@
         <v>0.07465464999998517</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>2562.646248352581</v>
@@ -3319,12 +3598,21 @@
         <v>43.91984973191763</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.1660046859</v>
+      </c>
+      <c r="AM31">
+        <v>0.05025102482612502</v>
+      </c>
+      <c r="AN31">
+        <v>0.03763069411818895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2017</v>
@@ -3384,7 +3672,7 @@
         <v>0.8260234339999926</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>2752.796542784465</v>
@@ -3393,12 +3681,21 @@
         <v>30.16060480831611</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.85986351104</v>
+      </c>
+      <c r="AM32">
+        <v>0.03921897728544254</v>
+      </c>
+      <c r="AN32">
+        <v>0.05203088284659283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2017</v>
@@ -3458,7 +3755,7 @@
         <v>0.06408871899999724</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>2949.336219099764</v>
@@ -3467,12 +3764,21 @@
         <v>32.20559702836099</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.31648529975</v>
+      </c>
+      <c r="AM33">
+        <v>0.05453472690492247</v>
+      </c>
+      <c r="AN33">
+        <v>0.04880310182063387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -3532,7 +3838,7 @@
         <v>0.3477239740000044</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>2518.129866015782</v>
@@ -3541,12 +3847,21 @@
         <v>31.0003902614021</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.0435883467</v>
+      </c>
+      <c r="AM34">
+        <v>0.05660274865554895</v>
+      </c>
+      <c r="AN34">
+        <v>0.06708675104568421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2017</v>
@@ -3606,7 +3921,7 @@
         <v>0.2346821789999893</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>2666.927459707598</v>
@@ -3615,12 +3930,21 @@
         <v>35.22341299841808</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.18936967099</v>
+      </c>
+      <c r="AM35">
+        <v>0.04594168636721831</v>
+      </c>
+      <c r="AN35">
+        <v>0.03861308116627267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -3680,7 +4004,7 @@
         <v>0.2383253580000115</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>2803.218105549695</v>
@@ -3689,12 +4013,21 @@
         <v>36.32384954094345</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>12.9729045869</v>
+      </c>
+      <c r="AM36">
+        <v>0.08047636232407072</v>
+      </c>
+      <c r="AN36">
+        <v>0.0653193792854565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2017</v>
@@ -3754,7 +4087,7 @@
         <v>0.3850573600000047</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>2927.084855291368</v>
@@ -3763,12 +4096,21 @@
         <v>34.51432361946598</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.96048721032</v>
+      </c>
+      <c r="AM37">
+        <v>0.05617519042437433</v>
+      </c>
+      <c r="AN37">
+        <v>0.04624591947769316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2017</v>
@@ -3828,7 +4170,7 @@
         <v>0.7595384389999964</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>2818.224900146028</v>
@@ -3837,12 +4179,21 @@
         <v>39.68653353411968</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.14126742579</v>
+      </c>
+      <c r="AM38">
+        <v>0.08917357447877418</v>
+      </c>
+      <c r="AN38">
+        <v>0.06154232604873148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2017</v>
@@ -3902,7 +4253,7 @@
         <v>0.002735452999999666</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>2254.72327194674</v>
@@ -3947,12 +4298,21 @@
         <v>12.95</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.82401771403</v>
+      </c>
+      <c r="AM39">
+        <v>0.07549202905790173</v>
+      </c>
+      <c r="AN39">
+        <v>0.07689782636619234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -4012,7 +4372,7 @@
         <v>0.1420545369999928</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>2841.659497313194</v>
@@ -4021,12 +4381,21 @@
         <v>28.13561300790576</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.41128153147</v>
+      </c>
+      <c r="AM40">
+        <v>0.0490113513705861</v>
+      </c>
+      <c r="AN40">
+        <v>0.05669754587400812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -4086,7 +4455,7 @@
         <v>0.2101184219999936</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>2485.052526907745</v>
@@ -4113,12 +4482,21 @@
         <v>2.6</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.16206112878</v>
+      </c>
+      <c r="AM41">
+        <v>0.03554372504501683</v>
+      </c>
+      <c r="AN41">
+        <v>0.06169263289751822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2017</v>
@@ -4178,7 +4556,7 @@
         <v>1.495052223000016</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>2537.569475224603</v>
@@ -4187,12 +4565,21 @@
         <v>33.94930336089254</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>12.87371841547</v>
+      </c>
+      <c r="AM42">
+        <v>0.06418485237483959</v>
+      </c>
+      <c r="AN42">
+        <v>0.05006418485237486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2017</v>
@@ -4252,7 +4639,7 @@
         <v>0.1787321839999976</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>2700.509267628021</v>
@@ -4261,12 +4648,21 @@
         <v>29.12465680737448</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.12722792862</v>
+      </c>
+      <c r="AM43">
+        <v>0.03681724309825053</v>
+      </c>
+      <c r="AN43">
+        <v>0.06064993946874925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2017</v>
@@ -4326,7 +4722,7 @@
         <v>0.5000621479999978</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>2647.239240372237</v>
@@ -4335,12 +4731,21 @@
         <v>32.39217700026137</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.87870305664</v>
+      </c>
+      <c r="AM44">
+        <v>0.04106998108619292</v>
+      </c>
+      <c r="AN44">
+        <v>0.03674682518238313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2017</v>
@@ -4400,7 +4805,7 @@
         <v>0.4473511549999927</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>2697.450575669473</v>
@@ -4409,12 +4814,21 @@
         <v>31.8613600082476</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>13.01177961461</v>
+      </c>
+      <c r="AM45">
+        <v>0.04302239058377865</v>
+      </c>
+      <c r="AN45">
+        <v>0.04663013822183137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -4474,7 +4888,7 @@
         <v>0.7748735859999982</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>2576.741560139558</v>
@@ -4483,12 +4897,21 @@
         <v>33.45453488338069</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.7738264246</v>
+      </c>
+      <c r="AM46">
+        <v>0.05954262830646011</v>
+      </c>
+      <c r="AN46">
+        <v>0.06477675905434362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2017</v>
@@ -4548,7 +4971,7 @@
         <v>0.1860417820000038</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>2807.866540587367</v>
@@ -4557,12 +4980,21 @@
         <v>29.66854184874525</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>12.98701083052</v>
+      </c>
+      <c r="AM47">
+        <v>0.04255475525503454</v>
+      </c>
+      <c r="AN47">
+        <v>0.08308834337792148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2017</v>
@@ -4622,7 +5054,7 @@
         <v>9.999894245993346E-10</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>2415.755073028326</v>
@@ -4631,12 +5063,21 @@
         <v>32.17383564934032</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.29937981845</v>
+      </c>
+      <c r="AM48">
+        <v>0.05549276672694395</v>
+      </c>
+      <c r="AN48">
+        <v>0.03627938517179025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -4696,7 +5137,7 @@
         <v>0.161435663000006</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>2896.263752867312</v>
@@ -4705,12 +5146,21 @@
         <v>34.87717831353014</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.15962822887</v>
+      </c>
+      <c r="AM49">
+        <v>0.05237329723326849</v>
+      </c>
+      <c r="AN49">
+        <v>0.04966579236822066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2017</v>
@@ -4770,7 +5220,7 @@
         <v>0.2342645239999968</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>2377.222812163334</v>
@@ -4797,12 +5247,21 @@
         <v>12.95</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.90105624934</v>
+      </c>
+      <c r="AM50">
+        <v>0.04120922832140016</v>
+      </c>
+      <c r="AN50">
+        <v>0.06389362427548585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -4862,7 +5321,7 @@
         <v>0.5142922489999933</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>2412.061712413912</v>
@@ -4871,12 +5330,21 @@
         <v>30.01572456480576</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.07582339237</v>
+      </c>
+      <c r="AM51">
+        <v>0.03326142166634807</v>
+      </c>
+      <c r="AN51">
+        <v>0.05221333187689449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2017</v>
@@ -4936,7 +5404,7 @@
         <v>0.4189700470000162</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>2349.319669027873</v>
@@ -4945,12 +5413,21 @@
         <v>34.56233335170261</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.88087911611</v>
+      </c>
+      <c r="AM52">
+        <v>0.05567632850241547</v>
+      </c>
+      <c r="AN52">
+        <v>0.04021739130434784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -5010,7 +5487,7 @@
         <v>0.3133080500000034</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>2867.494069447286</v>
@@ -5019,12 +5496,21 @@
         <v>32.60399260268214</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>12.9671617843</v>
+      </c>
+      <c r="AM53">
+        <v>0.03922994941890955</v>
+      </c>
+      <c r="AN53">
+        <v>0.05739854177592069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2017</v>
@@ -5084,7 +5570,7 @@
         <v>0.390241766999992</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>2323.052041627597</v>
@@ -5093,12 +5579,21 @@
         <v>38.70824726144026</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.16129214899</v>
+      </c>
+      <c r="AM54">
+        <v>0.07482708027667155</v>
+      </c>
+      <c r="AN54">
+        <v>0.05984070425487319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -5158,7 +5653,7 @@
         <v>0.3322903090000011</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>2378.517228680578</v>
@@ -5167,12 +5662,21 @@
         <v>31.80857608636941</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.36165257165</v>
+      </c>
+      <c r="AM55">
+        <v>0.04996706716028071</v>
+      </c>
+      <c r="AN55">
+        <v>0.05825705784823636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -5232,7 +5736,7 @@
         <v>0.01186168200000282</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>2486.384154438913</v>
@@ -5259,12 +5763,21 @@
         <v>10.92</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.56284301974</v>
+      </c>
+      <c r="AM56">
+        <v>0.05757796616671142</v>
+      </c>
+      <c r="AN56">
+        <v>0.142142007748667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2017</v>
@@ -5324,7 +5837,7 @@
         <v>0.2291641460000022</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>2893.985718201493</v>
@@ -5333,12 +5846,21 @@
         <v>42.2332918528306</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.09891892594</v>
+      </c>
+      <c r="AM57">
+        <v>0.05653244546179723</v>
+      </c>
+      <c r="AN57">
+        <v>0.04300627752921999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -5398,7 +5920,7 @@
         <v>0.2890364669999883</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>2580.817126763021</v>
@@ -5425,12 +5947,21 @@
         <v>11.34</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>12.99764349613</v>
+      </c>
+      <c r="AM58">
+        <v>0.04056778772481651</v>
+      </c>
+      <c r="AN58">
+        <v>0.04210016936849746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -5490,7 +6021,7 @@
         <v>0.9767633369999942</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>2427.096240993314</v>
@@ -5499,12 +6030,21 @@
         <v>30.01135494940593</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.91098745859</v>
+      </c>
+      <c r="AM59">
+        <v>0.04594287710717094</v>
+      </c>
+      <c r="AN59">
+        <v>0.05354179404314789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -5564,7 +6104,7 @@
         <v>0.3136983110000102</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>2526.832220191403</v>
@@ -5573,12 +6113,21 @@
         <v>30.95986216584946</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.00212467325</v>
+      </c>
+      <c r="AM60">
+        <v>0.03219498807910672</v>
+      </c>
+      <c r="AN60">
+        <v>0.07752868732954844</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -5638,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>4057.841683242767</v>
@@ -5647,12 +6196,21 @@
         <v>51.66912377663795</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.56584890614</v>
+      </c>
+      <c r="AM61">
+        <v>0.07655896274953695</v>
+      </c>
+      <c r="AN61">
+        <v>0.0541263634492694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2017</v>
@@ -5712,7 +6270,7 @@
         <v>0.2380454909999941</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>2701.76178744997</v>
@@ -5721,12 +6279,21 @@
         <v>42.08733825310763</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.18828724375</v>
+      </c>
+      <c r="AM62">
+        <v>0.07160436855868327</v>
+      </c>
+      <c r="AN62">
+        <v>0.05260729118597138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2017</v>
@@ -5786,7 +6353,7 @@
         <v>0.08256890700000952</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>2380.261089954395</v>
@@ -5795,12 +6362,21 @@
         <v>30.87235889726054</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.13325663961</v>
+      </c>
+      <c r="AM63">
+        <v>0.03683753258036489</v>
+      </c>
+      <c r="AN63">
+        <v>0.04074717636837532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -5860,7 +6436,7 @@
         <v>0.08491515399998661</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>2595.248445241554</v>
@@ -5869,12 +6445,21 @@
         <v>25.83605403422442</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.18105165366</v>
+      </c>
+      <c r="AM64">
+        <v>0.05666804070032325</v>
+      </c>
+      <c r="AN64">
+        <v>0.06098539908445966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2017</v>
@@ -5934,7 +6519,7 @@
         <v>0.4674112820000005</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>2940.157993029053</v>
@@ -5943,12 +6528,21 @@
         <v>39.4284372846722</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>13.0310819094</v>
+      </c>
+      <c r="AM65">
+        <v>0.04249164630193008</v>
+      </c>
+      <c r="AN65">
+        <v>0.03002344022742008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -6008,7 +6602,7 @@
         <v>0.565380138000009</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>2481.630532123958</v>
@@ -6017,12 +6611,21 @@
         <v>28.37657405809913</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>13.01609677286</v>
+      </c>
+      <c r="AM66">
+        <v>0.03258265452803066</v>
+      </c>
+      <c r="AN66">
+        <v>0.04605228131821328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -6082,7 +6685,7 @@
         <v>0.03921392300000548</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>2842.082514675152</v>
@@ -6091,12 +6694,21 @@
         <v>37.47778916277403</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.10937774297</v>
+      </c>
+      <c r="AM67">
+        <v>0.0697211155378486</v>
+      </c>
+      <c r="AN67">
+        <v>0.05657370517928285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2017</v>
@@ -6156,7 +6768,7 @@
         <v>0.2123764530000045</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>2363.81176817696</v>
@@ -6165,12 +6777,21 @@
         <v>36.48899375079054</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>12.93865665709</v>
+      </c>
+      <c r="AM68">
+        <v>0.0185978745286253</v>
+      </c>
+      <c r="AN68">
+        <v>0.03085361672951664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -6230,7 +6851,7 @@
         <v>0.1473506459999925</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>3235.775247506158</v>
@@ -6257,12 +6878,21 @@
         <v>12</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.29442715676</v>
+      </c>
+      <c r="AM69">
+        <v>0.04729321034326327</v>
+      </c>
+      <c r="AN69">
+        <v>0.04483592923030395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2017</v>
@@ -6322,7 +6952,7 @@
         <v>0.2886818460000029</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>2481.386096286847</v>
@@ -6331,12 +6961,21 @@
         <v>26.86110278785682</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>12.95612665298</v>
+      </c>
+      <c r="AM70">
+        <v>0.03843130765730361</v>
+      </c>
+      <c r="AN70">
+        <v>0.05382037810780625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -6396,7 +7035,7 @@
         <v>0.1628298609999916</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>2521.290005276498</v>
@@ -6405,12 +7044,21 @@
         <v>36.91015158140035</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.91831760401</v>
+      </c>
+      <c r="AM71">
+        <v>0.05468865008096572</v>
+      </c>
+      <c r="AN71">
+        <v>0.04291182099219786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2017</v>
@@ -6470,7 +7118,7 @@
         <v>0.2188196799999957</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>2146.460840019744</v>
@@ -6497,12 +7145,21 @@
         <v>13.95</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.09682989648</v>
+      </c>
+      <c r="AM72">
+        <v>0.03600715980518669</v>
+      </c>
+      <c r="AN72">
+        <v>0.04183490821296257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2017</v>
@@ -6562,7 +7219,7 @@
         <v>0.2514983090000129</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>2685.774130984747</v>
@@ -6607,12 +7264,21 @@
         <v>13.24</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.76343898153</v>
+      </c>
+      <c r="AM73">
+        <v>0.02498265093684942</v>
+      </c>
+      <c r="AN73">
+        <v>0.03322345593337962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2017</v>
@@ -6672,7 +7338,7 @@
         <v>0.03718825800000047</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>2508.621847782568</v>
@@ -6681,12 +7347,21 @@
         <v>24.39435245398773</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.24193544828</v>
+      </c>
+      <c r="AM74">
+        <v>0.0466266336983398</v>
+      </c>
+      <c r="AN74">
+        <v>0.06415577534440127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2017</v>
@@ -6746,7 +7421,7 @@
         <v>0.3297590929999927</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>2370.703159200397</v>
@@ -6773,12 +7448,21 @@
         <v>13.53</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.16383779047</v>
+      </c>
+      <c r="AM75">
+        <v>0.04075469485288727</v>
+      </c>
+      <c r="AN75">
+        <v>0.08316596543180917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -6838,7 +7522,7 @@
         <v>0.08163071100000252</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>2580.868851636798</v>
@@ -6847,12 +7531,21 @@
         <v>36.43128792516828</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.07807685129</v>
+      </c>
+      <c r="AM76">
+        <v>0.08113178052211974</v>
+      </c>
+      <c r="AN76">
+        <v>0.0849617007972487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2017</v>
@@ -6912,7 +7605,7 @@
         <v>0.4671471049999951</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>2149.73351781134</v>
@@ -6921,12 +7614,21 @@
         <v>39.82763871328516</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.02550698457</v>
+      </c>
+      <c r="AM77">
+        <v>0.04494382022471911</v>
+      </c>
+      <c r="AN77">
+        <v>0.03230337078651686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2017</v>
@@ -6986,7 +7688,7 @@
         <v>0.07566475000000139</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>2942.547754528327</v>
@@ -6995,12 +7697,21 @@
         <v>31.13070193211963</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.5336097361</v>
+      </c>
+      <c r="AM78">
+        <v>0.04734229325584211</v>
+      </c>
+      <c r="AN78">
+        <v>0.07264802034144567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2017</v>
@@ -7060,7 +7771,7 @@
         <v>0.3165527330000089</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>2858.356707344069</v>
@@ -7069,7 +7780,16 @@
         <v>31.19731216233583</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.00757215155</v>
+      </c>
+      <c r="AM79">
+        <v>0.03776646338051812</v>
+      </c>
+      <c r="AN79">
+        <v>0.05074693672019249</v>
       </c>
     </row>
   </sheetData>
